--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1452,28 +1452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.41111600502816</v>
+        <v>102.7170658863636</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.2855481723332</v>
+        <v>140.5420211027891</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.04636603100555</v>
+        <v>127.1288878607422</v>
       </c>
       <c r="AD2" t="n">
-        <v>78411.11600502816</v>
+        <v>102717.0658863636</v>
       </c>
       <c r="AE2" t="n">
-        <v>107285.5481723332</v>
+        <v>140542.0211027891</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.669098388548457e-06</v>
+        <v>6.788792641715255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>97046.36603100554</v>
+        <v>127128.8878607422</v>
       </c>
     </row>
     <row r="3">
@@ -1558,28 +1558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.5305732116236</v>
+        <v>101.836523092959</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.0807506755913</v>
+        <v>139.3372236060472</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.9565527164084</v>
+        <v>126.039074546145</v>
       </c>
       <c r="AD3" t="n">
-        <v>77530.5732116236</v>
+        <v>101836.523092959</v>
       </c>
       <c r="AE3" t="n">
-        <v>106080.7506755913</v>
+        <v>139337.2236060472</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.761227322206663e-06</v>
+        <v>6.959255289667123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.04296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>95956.55271640839</v>
+        <v>126039.074546145</v>
       </c>
     </row>
   </sheetData>
@@ -1855,28 +1855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.22338598666678</v>
+        <v>97.34384067567476</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.13678180897614</v>
+        <v>133.1901373195621</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.0114468433714</v>
+        <v>120.4786575473504</v>
       </c>
       <c r="AD2" t="n">
-        <v>62223.38598666678</v>
+        <v>97343.84067567476</v>
       </c>
       <c r="AE2" t="n">
-        <v>85136.78180897614</v>
+        <v>133190.1373195621</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.934255798337786e-06</v>
+        <v>7.499298734765987e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.997395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77011.44684337141</v>
+        <v>120478.6575473504</v>
       </c>
     </row>
   </sheetData>
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.43647037453286</v>
+        <v>87.27810401089377</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.90130973661691</v>
+        <v>119.4177523458548</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.22581631616575</v>
+        <v>108.0206896658657</v>
       </c>
       <c r="AD2" t="n">
-        <v>66436.47037453286</v>
+        <v>87278.10401089377</v>
       </c>
       <c r="AE2" t="n">
-        <v>90901.30973661691</v>
+        <v>119417.7523458548</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.105393653074093e-06</v>
+        <v>8.743414087482479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82225.81631616574</v>
+        <v>108020.6896658657</v>
       </c>
     </row>
   </sheetData>
@@ -2449,28 +2449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.01264835390279</v>
+        <v>90.8709891002826</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.42615010094029</v>
+        <v>124.3336962320574</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.41425086326375</v>
+        <v>112.4674627671412</v>
       </c>
       <c r="AD2" t="n">
-        <v>69012.64835390278</v>
+        <v>90870.9891002826</v>
       </c>
       <c r="AE2" t="n">
-        <v>94426.15010094029</v>
+        <v>124333.6962320575</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.12038469995134e-06</v>
+        <v>8.365805488352662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>85414.25086326375</v>
+        <v>112467.4627671412</v>
       </c>
     </row>
   </sheetData>
@@ -2746,28 +2746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.98512316544191</v>
+        <v>85.16344061400024</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.91551245621973</v>
+        <v>116.5243765938617</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.42954074112505</v>
+        <v>105.4034536347635</v>
       </c>
       <c r="AD2" t="n">
-        <v>64985.12316544191</v>
+        <v>85163.44061400024</v>
       </c>
       <c r="AE2" t="n">
-        <v>88915.51245621973</v>
+        <v>116524.3765938617</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.947218904930999e-06</v>
+        <v>8.78968551453371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.615885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>80429.54074112505</v>
+        <v>105403.4536347635</v>
       </c>
     </row>
   </sheetData>
@@ -3043,28 +3043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.11881555136283</v>
+        <v>98.78802486052562</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.7808774455854</v>
+        <v>135.1661338341837</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.97161475607209</v>
+        <v>122.2660677279456</v>
       </c>
       <c r="AD2" t="n">
-        <v>75118.81555136283</v>
+        <v>98788.02486052562</v>
       </c>
       <c r="AE2" t="n">
-        <v>102780.8774455854</v>
+        <v>135166.1338341837</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.869481304539385e-06</v>
+        <v>7.316274667038334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>92971.61475607209</v>
+        <v>122266.0677279456</v>
       </c>
     </row>
   </sheetData>
@@ -3340,28 +3340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.35131615751392</v>
+        <v>93.6647422573382</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.04830974638135</v>
+        <v>128.1562325532296</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.64510264078672</v>
+        <v>115.9251815867854</v>
       </c>
       <c r="AD2" t="n">
-        <v>64351.31615751392</v>
+        <v>93664.74225733821</v>
       </c>
       <c r="AE2" t="n">
-        <v>88048.30974638135</v>
+        <v>128156.2325532296</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.79657713030579e-06</v>
+        <v>8.703906485856123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79645.10264078672</v>
+        <v>115925.1815867854</v>
       </c>
     </row>
   </sheetData>
@@ -3637,28 +3637,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.5421418718643</v>
+        <v>94.2474718591574</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.88711472559164</v>
+        <v>128.9535489026539</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.54490588163384</v>
+        <v>116.6464031828614</v>
       </c>
       <c r="AD2" t="n">
-        <v>71542.1418718643</v>
+        <v>94247.47185915741</v>
       </c>
       <c r="AE2" t="n">
-        <v>97887.11472559164</v>
+        <v>128953.5489026539</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.048178624227654e-06</v>
+        <v>7.93437415792406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>88544.90588163384</v>
+        <v>116646.4031828614</v>
       </c>
     </row>
   </sheetData>
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.36155924037141</v>
+        <v>96.56806242635969</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.3765218362111</v>
+        <v>132.1286832939288</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.79672747152144</v>
+        <v>119.5185072041632</v>
       </c>
       <c r="AD2" t="n">
-        <v>73361.55924037141</v>
+        <v>96568.06242635968</v>
       </c>
       <c r="AE2" t="n">
-        <v>100376.5218362111</v>
+        <v>132128.6832939289</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.960680219092217e-06</v>
+        <v>7.615212061046425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>90796.72747152143</v>
+        <v>119518.5072041632</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.88236590649603</v>
+        <v>100.9828254392142</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.1938448438281</v>
+        <v>138.1691568137117</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.1542919324483</v>
+        <v>124.9824864090777</v>
       </c>
       <c r="AD2" t="n">
-        <v>76882.36590649604</v>
+        <v>100982.8254392142</v>
       </c>
       <c r="AE2" t="n">
-        <v>105193.8448438281</v>
+        <v>138169.1568137117</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.777083735179819e-06</v>
+        <v>7.03642052034465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.055989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>95154.29193244831</v>
+        <v>124982.4864090777</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.67134502001933</v>
+        <v>100.7718045527375</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.9051167573664</v>
+        <v>137.8804287272499</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.89311964932595</v>
+        <v>124.7213141259553</v>
       </c>
       <c r="AD3" t="n">
-        <v>76671.34502001933</v>
+        <v>100771.8045527375</v>
       </c>
       <c r="AE3" t="n">
-        <v>104905.1167573664</v>
+        <v>137880.4287272499</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.807129120484112e-06</v>
+        <v>7.092392794331507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.0234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>94893.11964932595</v>
+        <v>124721.3141259553</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.11719918435664</v>
+        <v>92.27291481655385</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.93744527650998</v>
+        <v>126.2518728456564</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.78131014839363</v>
+        <v>114.2025712969167</v>
       </c>
       <c r="AD2" t="n">
-        <v>70117.19918435664</v>
+        <v>92272.91481655385</v>
       </c>
       <c r="AE2" t="n">
-        <v>95937.44527650997</v>
+        <v>126251.8728456564</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.068638251622932e-06</v>
+        <v>8.155574613684983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>86781.31014839363</v>
+        <v>114202.5712969167</v>
       </c>
     </row>
   </sheetData>
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.25433792248992</v>
+        <v>88.45958459021317</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.02035219750088</v>
+        <v>121.0343061977233</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.23805893516926</v>
+        <v>109.4829618869599</v>
       </c>
       <c r="AD2" t="n">
-        <v>67254.33792248993</v>
+        <v>88459.58459021317</v>
       </c>
       <c r="AE2" t="n">
-        <v>92020.35219750088</v>
+        <v>121034.3061977233</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.129622284783676e-06</v>
+        <v>8.639428077742875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.1796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>83238.05893516926</v>
+        <v>109482.9618869599</v>
       </c>
     </row>
   </sheetData>
@@ -7665,28 +7665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.50896552757986</v>
+        <v>85.95448458734701</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.63225668639049</v>
+        <v>117.6067178565913</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.07787990792538</v>
+        <v>106.382497766454</v>
       </c>
       <c r="AD2" t="n">
-        <v>65508.96552757987</v>
+        <v>85954.484587347</v>
       </c>
       <c r="AE2" t="n">
-        <v>89632.25668639049</v>
+        <v>117606.7178565913</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.066413876794237e-06</v>
+        <v>8.839797268695007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81077.87990792538</v>
+        <v>106382.497766454</v>
       </c>
     </row>
   </sheetData>
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.07627960739067</v>
+        <v>102.613411630512</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.3544337736036</v>
+        <v>140.4001967770299</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.68130886611755</v>
+        <v>127.0005990495818</v>
       </c>
       <c r="AD2" t="n">
-        <v>74076.27960739068</v>
+        <v>102613.411630512</v>
       </c>
       <c r="AE2" t="n">
-        <v>101354.4337736036</v>
+        <v>140400.19677703</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.477342004833071e-06</v>
+        <v>8.270951719886816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.514322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91681.30886611754</v>
+        <v>127000.5990495818</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.49266548377864</v>
+        <v>95.4539267400649</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.18766306555437</v>
+        <v>130.6042736957436</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.72133171336202</v>
+        <v>118.1395851185059</v>
       </c>
       <c r="AD2" t="n">
-        <v>72492.66548377863</v>
+        <v>95453.9267400649</v>
       </c>
       <c r="AE2" t="n">
-        <v>99187.66306555437</v>
+        <v>130604.2736957436</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.99896362332866e-06</v>
+        <v>7.760301609983281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>89721.33171336201</v>
+        <v>118139.5851185059</v>
       </c>
     </row>
   </sheetData>
@@ -8556,28 +8556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.62591952401212</v>
+        <v>99.51432958624017</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4747194728122</v>
+        <v>136.1598960022089</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.59923747403396</v>
+        <v>123.1649866294088</v>
       </c>
       <c r="AD2" t="n">
-        <v>75625.91952401212</v>
+        <v>99514.32958624017</v>
       </c>
       <c r="AE2" t="n">
-        <v>103474.7194728122</v>
+        <v>136159.8960022089</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.858747837989635e-06</v>
+        <v>7.240524457816948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>93599.23747403396</v>
+        <v>123164.9866294088</v>
       </c>
     </row>
   </sheetData>
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.4729857210373</v>
+        <v>121.0284167193987</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.5796657485903</v>
+        <v>165.5964191523195</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.5489046666544</v>
+        <v>149.7921293245019</v>
       </c>
       <c r="AD2" t="n">
-        <v>84472.9857210373</v>
+        <v>121028.4167193988</v>
       </c>
       <c r="AE2" t="n">
-        <v>115579.6657485903</v>
+        <v>165596.4191523195</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.895097760017917e-06</v>
+        <v>7.240419790191677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.85546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>104548.9046666544</v>
+        <v>149792.1293245019</v>
       </c>
     </row>
   </sheetData>
@@ -9150,28 +9150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.93824200236396</v>
+        <v>89.48088460502893</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.95609993130266</v>
+        <v>122.4316939345703</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.08450021858749</v>
+        <v>110.7469848994486</v>
       </c>
       <c r="AD2" t="n">
-        <v>67938.24200236396</v>
+        <v>89480.88460502893</v>
       </c>
       <c r="AE2" t="n">
-        <v>92956.09993130266</v>
+        <v>122431.6939345703</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.157559243144494e-06</v>
+        <v>8.561592975557896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>84084.50021858749</v>
+        <v>110746.9848994486</v>
       </c>
     </row>
   </sheetData>
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.95992036532621</v>
+        <v>92.57316064250317</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.67156417191819</v>
+        <v>126.662682430631</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.97238331062054</v>
+        <v>114.5741737916763</v>
       </c>
       <c r="AD2" t="n">
-        <v>58959.92036532622</v>
+        <v>92573.16064250316</v>
       </c>
       <c r="AE2" t="n">
-        <v>80671.56417191819</v>
+        <v>126662.682430631</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.124818023832753e-06</v>
+        <v>8.172023932812891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.971354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72972.38331062054</v>
+        <v>114574.1737916763</v>
       </c>
     </row>
   </sheetData>
